--- a/Dataset/Cause-effect-pairs-in-school.xlsx
+++ b/Dataset/Cause-effect-pairs-in-school.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C830ED0-A253-4296-B637-858908BA8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{9C830ED0-A253-4296-B637-858908BA8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{989F53B2-BE8E-4461-9E2F-5314C6CABDBD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18DE6829-2EBC-4995-95BF-814080D6C527}"/>
   </bookViews>
@@ -3073,16 +3073,16 @@
     <t>Г</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>parallel</t>
-  </si>
-  <si>
-    <t>letter</t>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Параллель</t>
+  </si>
+  <si>
+    <t>Буква</t>
+  </si>
+  <si>
+    <t>Инцидент</t>
   </si>
 </sst>
 </file>
@@ -3141,7 +3141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3157,6 +3157,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3473,7 +3474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EC8342-1B8F-47C6-95DF-FE5EFE8F96B0}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3488,14 +3491,14 @@
       <c r="A1" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>1014</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -17518,7 +17521,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <f t="shared" ref="A1:A64" ca="1" si="0">RANDBETWEEN(1, 11)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1">
@@ -17528,7 +17531,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2">
@@ -17548,7 +17551,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4">
@@ -17558,7 +17561,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5">
@@ -17568,7 +17571,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6">
@@ -17578,7 +17581,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7">
@@ -17588,7 +17591,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8">
@@ -17598,7 +17601,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9">
@@ -17618,7 +17621,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11">
@@ -17628,7 +17631,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12">
@@ -17648,7 +17651,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14">
@@ -17658,7 +17661,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15">
@@ -17668,7 +17671,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16">
@@ -17678,7 +17681,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17">
@@ -17688,7 +17691,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18">
@@ -17698,7 +17701,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19">
@@ -17708,7 +17711,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20">
@@ -17718,7 +17721,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21">
@@ -17728,7 +17731,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22">
@@ -17738,7 +17741,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23">
@@ -17748,7 +17751,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24">
@@ -17758,7 +17761,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25">
@@ -17768,7 +17771,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26">
@@ -17778,7 +17781,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27">
@@ -17788,7 +17791,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28">
@@ -17798,7 +17801,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29">
@@ -17808,7 +17811,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30">
@@ -17828,7 +17831,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32">
@@ -17848,7 +17851,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34">
@@ -17858,7 +17861,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35">
@@ -17878,7 +17881,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37">
@@ -17888,7 +17891,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38">
@@ -17898,7 +17901,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39">
@@ -17908,7 +17911,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40">
@@ -17928,7 +17931,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42">
@@ -17938,7 +17941,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43">
@@ -17948,7 +17951,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44">
@@ -17958,7 +17961,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45">
@@ -17968,7 +17971,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46">
@@ -17978,7 +17981,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47">
@@ -17988,7 +17991,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48">
@@ -17998,7 +18001,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49">
@@ -18008,7 +18011,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50">
@@ -18018,7 +18021,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51">
@@ -18028,7 +18031,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52">
@@ -18038,7 +18041,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53">
@@ -18048,7 +18051,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54">
@@ -18058,7 +18061,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55">
@@ -18068,7 +18071,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56">
@@ -18078,7 +18081,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57">
@@ -18088,7 +18091,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58">
@@ -18098,7 +18101,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59">
@@ -18108,7 +18111,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60">
@@ -18118,7 +18121,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61">
@@ -18128,7 +18131,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62">
@@ -18138,7 +18141,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63">
@@ -18168,7 +18171,7 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66">
@@ -18178,7 +18181,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67">
@@ -18188,7 +18191,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68">
@@ -18198,7 +18201,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69">
@@ -18208,7 +18211,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70">
@@ -18218,7 +18221,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71">
@@ -18228,7 +18231,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72">
@@ -18238,7 +18241,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73">
@@ -18248,7 +18251,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74">
@@ -18258,7 +18261,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75">
@@ -18268,7 +18271,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76">
@@ -18278,7 +18281,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77">
@@ -18288,7 +18291,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78">
@@ -18298,7 +18301,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79">
@@ -18308,7 +18311,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80">
@@ -18318,7 +18321,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81">
@@ -18328,7 +18331,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82">
@@ -18338,7 +18341,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83">
@@ -18358,7 +18361,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85">
@@ -18368,7 +18371,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86">
@@ -18378,7 +18381,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87">
@@ -18388,7 +18391,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88">
@@ -18418,7 +18421,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91">
@@ -18428,7 +18431,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92">
@@ -18438,7 +18441,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93">
@@ -18458,7 +18461,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95">
@@ -18468,7 +18471,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96">
@@ -18478,7 +18481,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97">
@@ -18488,7 +18491,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98">
@@ -18498,7 +18501,7 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99">
@@ -18508,7 +18511,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100">
@@ -18518,7 +18521,7 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101">
@@ -18538,7 +18541,7 @@
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103">
@@ -18548,7 +18551,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104">
@@ -18558,7 +18561,7 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105">
@@ -18568,7 +18571,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106">
@@ -18578,7 +18581,7 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107">
@@ -18588,7 +18591,7 @@
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108">
@@ -18598,7 +18601,7 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109">
@@ -18608,7 +18611,7 @@
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110">
@@ -18618,7 +18621,7 @@
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111">
@@ -18628,7 +18631,7 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112">
@@ -18638,7 +18641,7 @@
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113">
@@ -18648,7 +18651,7 @@
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114">
@@ -18658,7 +18661,7 @@
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115">
@@ -18668,7 +18671,7 @@
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116">
@@ -18678,7 +18681,7 @@
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117">
@@ -18688,7 +18691,7 @@
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118">
@@ -18708,7 +18711,7 @@
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120">
@@ -18718,7 +18721,7 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121">
@@ -18728,7 +18731,7 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122">
@@ -18738,7 +18741,7 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123">
@@ -18748,7 +18751,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124">
@@ -18758,7 +18761,7 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125">
@@ -18768,7 +18771,7 @@
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126">
@@ -18778,7 +18781,7 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127">
@@ -18788,7 +18791,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128">
@@ -18798,7 +18801,7 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <f t="shared" ref="A129:A192" ca="1" si="2">RANDBETWEEN(1, 11)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129">
@@ -18808,7 +18811,7 @@
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130">
@@ -18818,7 +18821,7 @@
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131">
@@ -18828,7 +18831,7 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132">
@@ -18848,7 +18851,7 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134">
@@ -18858,7 +18861,7 @@
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135">
@@ -18868,7 +18871,7 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136">
@@ -18878,7 +18881,7 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137">
@@ -18888,7 +18891,7 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138">
@@ -18898,7 +18901,7 @@
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139">
@@ -18908,7 +18911,7 @@
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140">
@@ -18918,7 +18921,7 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141">
@@ -18928,7 +18931,7 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142">
@@ -18938,7 +18941,7 @@
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143">
@@ -18948,7 +18951,7 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144">
@@ -18958,7 +18961,7 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145">
@@ -18968,7 +18971,7 @@
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146">
@@ -18978,7 +18981,7 @@
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147">
@@ -18988,7 +18991,7 @@
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148">
@@ -18998,7 +19001,7 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149">
@@ -19018,7 +19021,7 @@
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151">
@@ -19028,7 +19031,7 @@
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152">
@@ -19038,7 +19041,7 @@
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153">
@@ -19048,7 +19051,7 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154">
@@ -19058,7 +19061,7 @@
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155">
@@ -19068,7 +19071,7 @@
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156">
@@ -19078,7 +19081,7 @@
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157">
@@ -19088,7 +19091,7 @@
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158">
@@ -19098,7 +19101,7 @@
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159">
@@ -19108,7 +19111,7 @@
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160">
@@ -19118,7 +19121,7 @@
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161">
@@ -19128,7 +19131,7 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162">
@@ -19138,7 +19141,7 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163">
@@ -19148,7 +19151,7 @@
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164">
@@ -19158,7 +19161,7 @@
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165">
@@ -19168,7 +19171,7 @@
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166">
@@ -19188,7 +19191,7 @@
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168">
@@ -19198,7 +19201,7 @@
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169">
@@ -19238,7 +19241,7 @@
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173">
@@ -19248,7 +19251,7 @@
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174">
@@ -19258,7 +19261,7 @@
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175">
@@ -19278,7 +19281,7 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177">
@@ -19288,7 +19291,7 @@
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178">
@@ -19298,7 +19301,7 @@
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179">
@@ -19308,7 +19311,7 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180">
@@ -19318,7 +19321,7 @@
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181">
@@ -19358,7 +19361,7 @@
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185">
@@ -19368,7 +19371,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186">
@@ -19378,7 +19381,7 @@
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187">
@@ -19388,7 +19391,7 @@
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188">
@@ -19398,7 +19401,7 @@
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189">
@@ -19408,7 +19411,7 @@
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190">
@@ -19428,7 +19431,7 @@
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192">
@@ -19438,7 +19441,7 @@
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <f t="shared" ref="A193:A256" ca="1" si="3">RANDBETWEEN(1, 11)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193">
@@ -19448,7 +19451,7 @@
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194">
@@ -19458,7 +19461,7 @@
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195">
@@ -19468,7 +19471,7 @@
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D196" s="4"/>
       <c r="E196">
@@ -19478,7 +19481,7 @@
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197">
@@ -19488,7 +19491,7 @@
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198">
@@ -19498,7 +19501,7 @@
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199">
@@ -19508,7 +19511,7 @@
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200">
@@ -19518,7 +19521,7 @@
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201">
@@ -19528,7 +19531,7 @@
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202">
@@ -19538,7 +19541,7 @@
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203">
@@ -19558,7 +19561,7 @@
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205">
@@ -19568,7 +19571,7 @@
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206">
@@ -19578,7 +19581,7 @@
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207">
@@ -19588,7 +19591,7 @@
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208">
@@ -19598,7 +19601,7 @@
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209">
@@ -19608,7 +19611,7 @@
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210">
@@ -19618,7 +19621,7 @@
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211">
@@ -19628,7 +19631,7 @@
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212">
@@ -19638,7 +19641,7 @@
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213">
@@ -19648,7 +19651,7 @@
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D214" s="4"/>
       <c r="E214">
@@ -19658,7 +19661,7 @@
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215">
@@ -19668,7 +19671,7 @@
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216">
@@ -19678,7 +19681,7 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217">
@@ -19688,7 +19691,7 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218">
@@ -19698,7 +19701,7 @@
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219">
@@ -19708,7 +19711,7 @@
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220">
@@ -19718,7 +19721,7 @@
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221">
@@ -19728,7 +19731,7 @@
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222">
@@ -19738,7 +19741,7 @@
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223">
@@ -19748,7 +19751,7 @@
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224">
@@ -19758,7 +19761,7 @@
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225">
@@ -19768,7 +19771,7 @@
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226">
@@ -19778,7 +19781,7 @@
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227">
@@ -19788,7 +19791,7 @@
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228">
@@ -19798,7 +19801,7 @@
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229">
@@ -19808,7 +19811,7 @@
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230">
@@ -19818,7 +19821,7 @@
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231">
@@ -19828,7 +19831,7 @@
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232">
@@ -19848,7 +19851,7 @@
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234">
@@ -19858,7 +19861,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235">
@@ -19868,7 +19871,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236">
@@ -19878,7 +19881,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237">
@@ -19888,7 +19891,7 @@
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D238" s="4"/>
       <c r="E238">
@@ -19898,7 +19901,7 @@
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239">
@@ -19908,7 +19911,7 @@
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240">
@@ -19918,7 +19921,7 @@
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241">
@@ -19928,7 +19931,7 @@
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242">
@@ -19938,7 +19941,7 @@
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243">
@@ -19948,7 +19951,7 @@
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244">
@@ -19958,7 +19961,7 @@
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245">
@@ -19968,7 +19971,7 @@
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246">
@@ -19978,7 +19981,7 @@
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247">
@@ -19988,7 +19991,7 @@
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248">
@@ -20008,7 +20011,7 @@
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250">
@@ -20018,7 +20021,7 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251">
@@ -20028,7 +20031,7 @@
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252">
@@ -20048,7 +20051,7 @@
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D254" s="4"/>
       <c r="E254">
@@ -20058,7 +20061,7 @@
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D255" s="4"/>
       <c r="E255">
@@ -20068,7 +20071,7 @@
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256">
@@ -20088,7 +20091,7 @@
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258">
@@ -20098,7 +20101,7 @@
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259">
@@ -20108,7 +20111,7 @@
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260">
@@ -20118,7 +20121,7 @@
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D261" s="4"/>
       <c r="E261">
@@ -20128,7 +20131,7 @@
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D262" s="4"/>
       <c r="E262">
@@ -20138,7 +20141,7 @@
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D263" s="4"/>
       <c r="E263">
@@ -20158,7 +20161,7 @@
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D265" s="4"/>
       <c r="E265">
@@ -20178,7 +20181,7 @@
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D267" s="4"/>
       <c r="E267">
@@ -20188,7 +20191,7 @@
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D268" s="4"/>
       <c r="E268">
@@ -20198,7 +20201,7 @@
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D269" s="4"/>
       <c r="E269">
@@ -20208,7 +20211,7 @@
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D270" s="4"/>
       <c r="E270">
@@ -20218,7 +20221,7 @@
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D271" s="4"/>
       <c r="E271">
@@ -20228,7 +20231,7 @@
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D272" s="4"/>
       <c r="E272">
@@ -20238,7 +20241,7 @@
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D273" s="4"/>
       <c r="E273">
@@ -20248,7 +20251,7 @@
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D274" s="4"/>
       <c r="E274">
@@ -20258,7 +20261,7 @@
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D275" s="4"/>
       <c r="E275">
@@ -20268,7 +20271,7 @@
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D276" s="4"/>
       <c r="E276">
@@ -20278,7 +20281,7 @@
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D277" s="4"/>
       <c r="E277">
@@ -20288,7 +20291,7 @@
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D278" s="4"/>
       <c r="E278">
@@ -20298,7 +20301,7 @@
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D279" s="4"/>
       <c r="E279">
@@ -20308,7 +20311,7 @@
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D280" s="4"/>
       <c r="E280">
@@ -20318,7 +20321,7 @@
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D281" s="4"/>
       <c r="E281">
@@ -20328,7 +20331,7 @@
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D282" s="4"/>
       <c r="E282">
@@ -20338,7 +20341,7 @@
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D283" s="4"/>
       <c r="E283">
@@ -20348,7 +20351,7 @@
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D284" s="4"/>
       <c r="E284">
@@ -20358,7 +20361,7 @@
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D285" s="4"/>
       <c r="E285">
@@ -20368,7 +20371,7 @@
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286">
@@ -20378,7 +20381,7 @@
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287">
@@ -20388,7 +20391,7 @@
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288">
@@ -20408,7 +20411,7 @@
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D290" s="4"/>
       <c r="E290">
@@ -20418,7 +20421,7 @@
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D291" s="4"/>
       <c r="E291">
@@ -20428,7 +20431,7 @@
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D292" s="4"/>
       <c r="E292">
@@ -20438,7 +20441,7 @@
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293">
@@ -20448,7 +20451,7 @@
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D294" s="4"/>
       <c r="E294">
@@ -20458,7 +20461,7 @@
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295">
@@ -20468,7 +20471,7 @@
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296">
@@ -20478,7 +20481,7 @@
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297">
@@ -20488,7 +20491,7 @@
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D298" s="4"/>
       <c r="E298">
@@ -20498,7 +20501,7 @@
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D299" s="4"/>
       <c r="E299">
@@ -20518,7 +20521,7 @@
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D301" s="4"/>
       <c r="E301">
@@ -20528,7 +20531,7 @@
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D302" s="4"/>
       <c r="E302">
@@ -20538,7 +20541,7 @@
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D303" s="4"/>
       <c r="E303">
@@ -20548,7 +20551,7 @@
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D304" s="4"/>
       <c r="E304">
@@ -20558,7 +20561,7 @@
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D305" s="4"/>
       <c r="E305">
@@ -20568,7 +20571,7 @@
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D306" s="4"/>
       <c r="E306">
@@ -20578,7 +20581,7 @@
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D307" s="4"/>
       <c r="E307">
@@ -20588,7 +20591,7 @@
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D308" s="4"/>
       <c r="E308">
@@ -20598,7 +20601,7 @@
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D309" s="4"/>
       <c r="E309">
@@ -20608,7 +20611,7 @@
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D310" s="4"/>
       <c r="E310">
@@ -20618,7 +20621,7 @@
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D311" s="4"/>
       <c r="E311">
@@ -20628,7 +20631,7 @@
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312">
@@ -20638,7 +20641,7 @@
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D313" s="4"/>
       <c r="E313">
@@ -20648,7 +20651,7 @@
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D314" s="4"/>
       <c r="E314">
@@ -20658,7 +20661,7 @@
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D315" s="4"/>
       <c r="E315">
@@ -20678,7 +20681,7 @@
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D317" s="4"/>
       <c r="E317">
@@ -20688,7 +20691,7 @@
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D318" s="4"/>
       <c r="E318">
@@ -20698,7 +20701,7 @@
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D319" s="4"/>
       <c r="E319">
@@ -20708,7 +20711,7 @@
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D320" s="4"/>
       <c r="E320">
@@ -20718,7 +20721,7 @@
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <f t="shared" ref="A321:A384" ca="1" si="5">RANDBETWEEN(1, 11)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D321" s="4"/>
       <c r="E321">
@@ -20728,7 +20731,7 @@
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D322" s="4"/>
       <c r="E322">
@@ -20738,7 +20741,7 @@
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D323" s="4"/>
       <c r="E323">
@@ -20748,7 +20751,7 @@
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D324" s="4"/>
       <c r="E324">
@@ -20758,7 +20761,7 @@
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D325" s="4"/>
       <c r="E325">
@@ -20768,7 +20771,7 @@
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D326" s="4"/>
       <c r="E326">
@@ -20778,7 +20781,7 @@
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D327" s="4"/>
       <c r="E327">
@@ -20788,7 +20791,7 @@
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D328" s="4"/>
       <c r="E328">
@@ -20798,7 +20801,7 @@
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D329" s="4"/>
       <c r="E329">
@@ -20818,7 +20821,7 @@
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D331" s="4"/>
       <c r="E331">
@@ -20828,7 +20831,7 @@
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D332" s="4"/>
       <c r="E332">
@@ -20858,7 +20861,7 @@
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D335" s="4"/>
       <c r="E335">
@@ -20868,7 +20871,7 @@
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D336" s="4"/>
       <c r="E336">
@@ -20878,7 +20881,7 @@
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D337" s="4"/>
       <c r="E337">
@@ -20888,7 +20891,7 @@
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D338" s="4"/>
       <c r="E338">
@@ -20898,7 +20901,7 @@
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D339" s="4"/>
       <c r="E339">
@@ -20908,7 +20911,7 @@
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D340" s="4"/>
       <c r="E340">
@@ -20928,7 +20931,7 @@
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D342" s="4"/>
       <c r="E342">
@@ -20938,7 +20941,7 @@
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D343" s="4"/>
       <c r="E343">
@@ -20948,7 +20951,7 @@
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D344" s="4"/>
       <c r="E344">
@@ -20958,7 +20961,7 @@
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D345" s="4"/>
       <c r="E345">
@@ -20968,7 +20971,7 @@
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D346" s="4"/>
       <c r="E346">
@@ -20978,7 +20981,7 @@
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D347" s="4"/>
       <c r="E347">
@@ -20988,7 +20991,7 @@
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D348" s="4"/>
       <c r="E348">
@@ -21008,7 +21011,7 @@
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D350" s="4"/>
       <c r="E350">
@@ -21018,7 +21021,7 @@
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D351" s="4"/>
       <c r="E351">
@@ -21028,7 +21031,7 @@
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D352" s="4"/>
       <c r="E352">
@@ -21038,7 +21041,7 @@
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353">
@@ -21048,7 +21051,7 @@
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D354" s="4"/>
       <c r="E354">
@@ -21058,7 +21061,7 @@
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355">
@@ -21068,7 +21071,7 @@
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D356" s="4"/>
       <c r="E356">
@@ -21078,7 +21081,7 @@
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D357" s="4"/>
       <c r="E357">
@@ -21088,7 +21091,7 @@
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D358" s="4"/>
       <c r="E358">
@@ -21098,7 +21101,7 @@
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D359" s="4"/>
       <c r="E359">
@@ -21108,7 +21111,7 @@
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D360" s="4"/>
       <c r="E360">
@@ -21118,7 +21121,7 @@
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D361" s="4"/>
       <c r="E361">
@@ -21128,7 +21131,7 @@
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D362" s="4"/>
       <c r="E362">
@@ -21138,7 +21141,7 @@
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D363" s="4"/>
       <c r="E363">
@@ -21148,7 +21151,7 @@
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D364" s="4"/>
       <c r="E364">
@@ -21158,7 +21161,7 @@
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D365" s="4"/>
       <c r="E365">
@@ -21168,7 +21171,7 @@
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D366" s="4"/>
       <c r="E366">
@@ -21178,7 +21181,7 @@
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D367" s="4"/>
       <c r="E367">
@@ -21188,7 +21191,7 @@
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D368" s="4"/>
       <c r="E368">
@@ -21198,7 +21201,7 @@
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D369" s="4"/>
       <c r="E369">
@@ -21208,7 +21211,7 @@
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D370" s="4"/>
       <c r="E370">
@@ -21218,7 +21221,7 @@
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D371" s="4"/>
       <c r="E371">
@@ -21228,7 +21231,7 @@
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D372" s="4"/>
       <c r="E372">
@@ -21238,7 +21241,7 @@
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D373" s="4"/>
       <c r="E373">
@@ -21248,7 +21251,7 @@
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D374" s="4"/>
       <c r="E374">
@@ -21258,7 +21261,7 @@
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D375" s="4"/>
       <c r="E375">
@@ -21268,7 +21271,7 @@
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D376" s="4"/>
       <c r="E376">
@@ -21278,7 +21281,7 @@
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D377" s="4"/>
       <c r="E377">
@@ -21288,7 +21291,7 @@
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D378" s="4"/>
       <c r="E378">
@@ -21298,7 +21301,7 @@
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D379" s="4"/>
       <c r="E379">
@@ -21308,7 +21311,7 @@
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D380" s="4"/>
       <c r="E380">
@@ -21318,7 +21321,7 @@
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D381" s="4"/>
       <c r="E381">
@@ -21328,7 +21331,7 @@
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D382" s="4"/>
       <c r="E382">
@@ -21338,7 +21341,7 @@
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D383" s="4"/>
       <c r="E383">
@@ -21348,7 +21351,7 @@
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D384" s="4"/>
       <c r="E384">
@@ -21368,7 +21371,7 @@
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D386" s="4"/>
       <c r="E386">
@@ -21388,7 +21391,7 @@
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D388" s="4"/>
       <c r="E388">
@@ -21408,7 +21411,7 @@
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D390" s="4"/>
       <c r="E390">
@@ -21418,7 +21421,7 @@
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391">
@@ -21428,7 +21431,7 @@
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D392" s="4"/>
       <c r="E392">
@@ -21438,7 +21441,7 @@
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D393" s="4"/>
       <c r="E393">
@@ -21448,7 +21451,7 @@
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D394" s="4"/>
       <c r="E394">
@@ -21458,7 +21461,7 @@
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D395" s="4"/>
       <c r="E395">
@@ -21478,7 +21481,7 @@
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D397" s="4"/>
       <c r="E397">
@@ -21498,7 +21501,7 @@
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D399" s="4"/>
       <c r="E399">
@@ -21518,7 +21521,7 @@
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D401" s="4"/>
       <c r="E401">
@@ -21528,7 +21531,7 @@
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D402" s="4"/>
       <c r="E402">
@@ -21538,7 +21541,7 @@
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D403" s="4"/>
       <c r="E403">
@@ -21548,7 +21551,7 @@
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D404" s="4"/>
       <c r="E404">
@@ -21568,7 +21571,7 @@
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D406" s="4"/>
       <c r="E406">
@@ -21578,7 +21581,7 @@
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D407" s="4"/>
       <c r="E407">
@@ -21588,7 +21591,7 @@
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D408" s="4"/>
       <c r="E408">
@@ -21598,7 +21601,7 @@
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D409" s="4"/>
       <c r="E409">
@@ -21608,7 +21611,7 @@
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D410" s="4"/>
       <c r="E410">
@@ -21618,7 +21621,7 @@
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D411" s="4"/>
       <c r="E411">
@@ -21628,7 +21631,7 @@
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D412" s="4"/>
       <c r="E412">
@@ -21638,7 +21641,7 @@
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D413" s="4"/>
       <c r="E413">
@@ -21648,7 +21651,7 @@
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D414" s="4"/>
       <c r="E414">
@@ -21658,7 +21661,7 @@
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D415" s="4"/>
       <c r="E415">
@@ -21668,7 +21671,7 @@
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D416" s="4"/>
       <c r="E416">
@@ -21678,7 +21681,7 @@
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D417" s="4"/>
       <c r="E417">
@@ -21688,7 +21691,7 @@
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D418" s="4"/>
       <c r="E418">
@@ -21708,7 +21711,7 @@
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D420" s="4"/>
       <c r="E420">
@@ -21718,7 +21721,7 @@
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D421" s="4"/>
       <c r="E421">
@@ -21738,7 +21741,7 @@
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D423" s="4"/>
       <c r="E423">
@@ -21748,7 +21751,7 @@
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D424" s="4"/>
       <c r="E424">
@@ -21758,7 +21761,7 @@
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D425" s="4"/>
       <c r="E425">
@@ -21768,7 +21771,7 @@
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D426" s="4"/>
       <c r="E426">
@@ -21778,7 +21781,7 @@
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D427" s="4"/>
       <c r="E427">
@@ -21788,7 +21791,7 @@
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D428" s="4"/>
       <c r="E428">
@@ -21798,7 +21801,7 @@
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D429" s="4"/>
       <c r="E429">
@@ -21808,7 +21811,7 @@
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D430" s="4"/>
       <c r="E430">
@@ -21818,7 +21821,7 @@
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D431" s="4"/>
       <c r="E431">
@@ -21828,7 +21831,7 @@
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D432" s="4"/>
       <c r="E432">
@@ -21838,7 +21841,7 @@
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D433" s="4"/>
       <c r="E433">
@@ -21848,7 +21851,7 @@
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D434" s="4"/>
       <c r="E434">
@@ -21858,7 +21861,7 @@
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D435" s="4"/>
       <c r="E435">
@@ -21868,7 +21871,7 @@
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D436" s="4"/>
       <c r="E436">
@@ -21888,7 +21891,7 @@
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D438" s="4"/>
       <c r="E438">
@@ -21898,7 +21901,7 @@
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D439" s="4"/>
       <c r="E439">
@@ -21918,7 +21921,7 @@
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D441" s="4"/>
       <c r="E441">
@@ -21928,7 +21931,7 @@
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D442" s="4"/>
       <c r="E442">
@@ -21938,7 +21941,7 @@
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D443" s="4"/>
       <c r="E443">
@@ -21948,7 +21951,7 @@
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D444" s="4"/>
       <c r="E444">
@@ -21958,7 +21961,7 @@
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D445" s="4"/>
       <c r="E445">
@@ -21968,7 +21971,7 @@
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D446" s="4"/>
       <c r="E446">
@@ -21978,7 +21981,7 @@
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D447" s="4"/>
       <c r="E447">
@@ -21988,7 +21991,7 @@
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D448" s="4"/>
       <c r="E448">
@@ -21998,7 +22001,7 @@
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="4">
         <f t="shared" ref="A449:A512" ca="1" si="7">RANDBETWEEN(1, 11)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D449" s="4"/>
       <c r="E449">
@@ -22008,7 +22011,7 @@
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D450" s="4"/>
       <c r="E450">
@@ -22018,7 +22021,7 @@
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D451" s="4"/>
       <c r="E451">
@@ -22028,7 +22031,7 @@
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D452" s="4"/>
       <c r="E452">
@@ -22038,7 +22041,7 @@
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D453" s="4"/>
       <c r="E453">
@@ -22048,7 +22051,7 @@
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D454" s="4"/>
       <c r="E454">
@@ -22058,7 +22061,7 @@
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D455" s="4"/>
       <c r="E455">
@@ -22068,7 +22071,7 @@
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D456" s="4"/>
       <c r="E456">
@@ -22078,7 +22081,7 @@
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D457" s="4"/>
       <c r="E457">
@@ -22088,7 +22091,7 @@
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D458" s="4"/>
       <c r="E458">
@@ -22098,7 +22101,7 @@
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D459" s="4"/>
       <c r="E459">
@@ -22108,7 +22111,7 @@
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D460" s="4"/>
       <c r="E460">
@@ -22118,7 +22121,7 @@
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D461" s="4"/>
       <c r="E461">
@@ -22128,7 +22131,7 @@
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D462" s="4"/>
       <c r="E462">
@@ -22138,7 +22141,7 @@
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D463" s="4"/>
       <c r="E463">
@@ -22148,7 +22151,7 @@
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D464" s="4"/>
       <c r="E464">
@@ -22158,7 +22161,7 @@
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D465" s="4"/>
       <c r="E465">
@@ -22168,7 +22171,7 @@
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D466" s="4"/>
       <c r="E466">
@@ -22178,7 +22181,7 @@
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D467" s="4"/>
       <c r="E467">
@@ -22188,7 +22191,7 @@
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D468" s="4"/>
       <c r="E468">
@@ -22198,7 +22201,7 @@
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D469" s="4"/>
       <c r="E469">
@@ -22208,7 +22211,7 @@
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D470" s="4"/>
       <c r="E470">
@@ -22218,7 +22221,7 @@
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D471" s="4"/>
       <c r="E471">
@@ -22228,7 +22231,7 @@
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D472" s="4"/>
       <c r="E472">
@@ -22238,7 +22241,7 @@
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D473" s="4"/>
       <c r="E473">
@@ -22248,7 +22251,7 @@
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D474" s="4"/>
       <c r="E474">
@@ -22258,7 +22261,7 @@
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D475" s="4"/>
       <c r="E475">
@@ -22268,7 +22271,7 @@
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D476" s="4"/>
       <c r="E476">
@@ -22278,7 +22281,7 @@
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D477" s="4"/>
       <c r="E477">
@@ -22288,7 +22291,7 @@
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D478" s="4"/>
       <c r="E478">
@@ -22298,7 +22301,7 @@
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D479" s="4"/>
       <c r="E479">
@@ -22308,7 +22311,7 @@
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D480" s="4"/>
       <c r="E480">
@@ -22318,7 +22321,7 @@
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D481" s="4"/>
       <c r="E481">
@@ -22328,7 +22331,7 @@
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D482" s="4"/>
       <c r="E482">
@@ -22338,7 +22341,7 @@
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D483" s="4"/>
       <c r="E483">
@@ -22348,7 +22351,7 @@
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D484" s="4"/>
       <c r="E484">
@@ -22358,7 +22361,7 @@
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D485" s="4"/>
       <c r="E485">
@@ -22368,7 +22371,7 @@
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D486" s="4"/>
       <c r="E486">
@@ -22378,7 +22381,7 @@
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D487" s="4"/>
       <c r="E487">
@@ -22388,7 +22391,7 @@
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D488" s="4"/>
       <c r="E488">
@@ -22398,7 +22401,7 @@
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D489" s="4"/>
       <c r="E489">
@@ -22408,7 +22411,7 @@
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D490" s="4"/>
       <c r="E490">
@@ -22418,7 +22421,7 @@
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D491" s="4"/>
       <c r="E491">
@@ -22428,7 +22431,7 @@
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D492" s="4"/>
       <c r="E492">
@@ -22438,7 +22441,7 @@
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D493" s="4"/>
       <c r="E493">
@@ -22448,7 +22451,7 @@
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D494" s="4"/>
       <c r="E494">
@@ -22458,7 +22461,7 @@
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D495" s="4"/>
       <c r="E495">
@@ -22468,7 +22471,7 @@
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D496" s="4"/>
       <c r="E496">
@@ -22478,7 +22481,7 @@
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D497" s="4"/>
       <c r="E497">
@@ -22488,7 +22491,7 @@
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D498" s="4"/>
       <c r="E498">
@@ -22498,7 +22501,7 @@
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D499" s="4"/>
       <c r="E499">
@@ -22508,7 +22511,7 @@
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D500" s="4"/>
       <c r="E500">
@@ -22518,7 +22521,7 @@
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D501" s="4"/>
       <c r="E501">
@@ -22528,7 +22531,7 @@
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D502" s="4"/>
       <c r="E502">
@@ -22538,7 +22541,7 @@
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D503" s="4"/>
       <c r="E503">
@@ -22548,7 +22551,7 @@
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D504" s="4"/>
       <c r="E504">
@@ -22558,7 +22561,7 @@
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D505" s="4"/>
       <c r="E505">
@@ -22568,7 +22571,7 @@
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D506" s="4"/>
       <c r="E506">
@@ -22578,7 +22581,7 @@
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D507" s="4"/>
       <c r="E507">
@@ -22588,7 +22591,7 @@
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D508" s="4"/>
       <c r="E508">
@@ -22598,7 +22601,7 @@
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D509" s="4"/>
       <c r="E509">
@@ -22608,7 +22611,7 @@
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D510" s="4"/>
       <c r="E510">
@@ -22628,7 +22631,7 @@
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D512" s="4"/>
       <c r="E512">
@@ -22638,7 +22641,7 @@
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="4">
         <f t="shared" ref="A513:A576" ca="1" si="8">RANDBETWEEN(1, 11)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D513" s="4"/>
       <c r="E513">
@@ -22648,7 +22651,7 @@
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D514" s="4"/>
       <c r="E514">
@@ -22658,7 +22661,7 @@
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D515" s="4"/>
       <c r="E515">
@@ -22668,7 +22671,7 @@
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D516" s="4"/>
       <c r="E516">
@@ -22678,7 +22681,7 @@
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D517" s="4"/>
       <c r="E517">
@@ -22688,7 +22691,7 @@
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D518" s="4"/>
       <c r="E518">
@@ -22698,7 +22701,7 @@
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D519" s="4"/>
       <c r="E519">
@@ -22708,7 +22711,7 @@
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D520" s="4"/>
       <c r="E520">
@@ -22718,7 +22721,7 @@
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D521" s="4"/>
       <c r="E521">
@@ -22728,7 +22731,7 @@
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D522" s="4"/>
       <c r="E522">
@@ -22738,7 +22741,7 @@
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D523" s="4"/>
       <c r="E523">
@@ -22748,7 +22751,7 @@
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D524" s="4"/>
       <c r="E524">
@@ -22758,7 +22761,7 @@
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D525" s="4"/>
       <c r="E525">
@@ -22768,7 +22771,7 @@
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D526" s="4"/>
       <c r="E526">
@@ -22778,7 +22781,7 @@
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D527" s="4"/>
       <c r="E527">
@@ -22788,7 +22791,7 @@
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D528" s="4"/>
       <c r="E528">
@@ -22798,7 +22801,7 @@
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D529" s="4"/>
       <c r="E529">
@@ -22808,7 +22811,7 @@
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D530" s="4"/>
       <c r="E530">
@@ -22818,7 +22821,7 @@
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D531" s="4"/>
       <c r="E531">
@@ -22828,7 +22831,7 @@
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D532" s="4"/>
       <c r="E532">
@@ -22838,7 +22841,7 @@
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D533" s="4"/>
       <c r="E533">
@@ -22848,7 +22851,7 @@
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D534" s="4"/>
       <c r="E534">
@@ -22858,7 +22861,7 @@
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D535" s="4"/>
       <c r="E535">
@@ -22868,7 +22871,7 @@
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D536" s="4"/>
       <c r="E536">
@@ -22878,7 +22881,7 @@
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D537" s="4"/>
       <c r="E537">
@@ -22888,7 +22891,7 @@
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D538" s="4"/>
       <c r="E538">
@@ -22898,7 +22901,7 @@
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D539" s="4"/>
       <c r="E539">
@@ -22908,7 +22911,7 @@
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D540" s="4"/>
       <c r="E540">
@@ -22918,7 +22921,7 @@
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D541" s="4"/>
       <c r="E541">
@@ -22928,7 +22931,7 @@
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D542" s="4"/>
       <c r="E542">
@@ -22948,7 +22951,7 @@
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D544" s="4"/>
       <c r="E544">
@@ -22958,7 +22961,7 @@
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D545" s="4"/>
       <c r="E545">
@@ -22968,7 +22971,7 @@
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D546" s="4"/>
       <c r="E546">
@@ -22978,7 +22981,7 @@
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D547" s="4"/>
       <c r="E547">
@@ -22988,7 +22991,7 @@
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D548" s="4"/>
       <c r="E548">
@@ -22998,7 +23001,7 @@
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D549" s="4"/>
       <c r="E549">
@@ -23008,7 +23011,7 @@
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D550" s="4"/>
       <c r="E550">
@@ -23018,7 +23021,7 @@
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D551" s="4"/>
       <c r="E551">
@@ -23028,7 +23031,7 @@
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D552" s="4"/>
       <c r="E552">
@@ -23038,7 +23041,7 @@
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D553" s="4"/>
       <c r="E553">
@@ -23048,7 +23051,7 @@
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D554" s="4"/>
       <c r="E554">
@@ -23058,7 +23061,7 @@
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D555" s="4"/>
       <c r="E555">
@@ -23068,7 +23071,7 @@
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D556" s="4"/>
       <c r="E556">
@@ -23078,7 +23081,7 @@
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D557" s="4"/>
       <c r="E557">
@@ -23098,7 +23101,7 @@
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D559" s="4"/>
       <c r="E559">
@@ -23108,7 +23111,7 @@
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D560" s="4"/>
       <c r="E560">
@@ -23118,7 +23121,7 @@
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D561" s="4"/>
       <c r="E561">
@@ -23128,7 +23131,7 @@
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D562" s="4"/>
       <c r="E562">
@@ -23138,7 +23141,7 @@
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D563" s="4"/>
       <c r="E563">
@@ -23148,7 +23151,7 @@
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D564" s="4"/>
       <c r="E564">
@@ -23158,7 +23161,7 @@
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D565" s="4"/>
       <c r="E565">
@@ -23168,7 +23171,7 @@
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D566" s="4"/>
       <c r="E566">
@@ -23188,7 +23191,7 @@
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D568" s="4"/>
       <c r="E568">
@@ -23198,7 +23201,7 @@
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D569" s="4"/>
       <c r="E569">
@@ -23208,7 +23211,7 @@
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D570" s="4"/>
       <c r="E570">
@@ -23218,7 +23221,7 @@
     <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D571" s="4"/>
       <c r="E571">
@@ -23228,7 +23231,7 @@
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D572" s="4"/>
       <c r="E572">
@@ -23238,7 +23241,7 @@
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D573" s="4"/>
       <c r="E573">
@@ -23248,7 +23251,7 @@
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D574" s="4"/>
       <c r="E574">
@@ -23258,7 +23261,7 @@
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D575" s="4"/>
       <c r="E575">
@@ -23268,7 +23271,7 @@
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D576" s="4"/>
       <c r="E576">
@@ -23278,7 +23281,7 @@
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="4">
         <f t="shared" ref="A577:A640" ca="1" si="9">RANDBETWEEN(1, 11)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D577" s="4"/>
       <c r="E577">
@@ -23288,7 +23291,7 @@
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D578" s="4"/>
       <c r="E578">
@@ -23298,7 +23301,7 @@
     <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D579" s="4"/>
       <c r="E579">
@@ -23308,7 +23311,7 @@
     <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D580" s="4"/>
       <c r="E580">
@@ -23318,7 +23321,7 @@
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D581" s="4"/>
       <c r="E581">
@@ -23328,7 +23331,7 @@
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D582" s="4"/>
       <c r="E582">
@@ -23338,7 +23341,7 @@
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D583" s="4"/>
       <c r="E583">
@@ -23348,7 +23351,7 @@
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D584" s="4"/>
       <c r="E584">
@@ -23358,7 +23361,7 @@
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D585" s="4"/>
       <c r="E585">
@@ -23368,7 +23371,7 @@
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D586" s="4"/>
       <c r="E586">
@@ -23378,7 +23381,7 @@
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D587" s="4"/>
       <c r="E587">
@@ -23388,7 +23391,7 @@
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D588" s="4"/>
       <c r="E588">
@@ -23398,7 +23401,7 @@
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D589" s="4"/>
       <c r="E589">
@@ -23408,7 +23411,7 @@
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D590" s="4"/>
       <c r="E590">
@@ -23418,7 +23421,7 @@
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D591" s="4"/>
       <c r="E591">
@@ -23428,7 +23431,7 @@
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D592" s="4"/>
       <c r="E592">
@@ -23438,7 +23441,7 @@
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D593" s="4"/>
       <c r="E593">
@@ -23448,7 +23451,7 @@
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D594" s="4"/>
       <c r="E594">
@@ -23458,7 +23461,7 @@
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D595" s="4"/>
       <c r="E595">
@@ -23468,7 +23471,7 @@
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D596" s="4"/>
       <c r="E596">
@@ -23478,7 +23481,7 @@
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D597" s="4"/>
       <c r="E597">
@@ -23508,7 +23511,7 @@
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D600" s="4"/>
       <c r="E600">
@@ -23518,7 +23521,7 @@
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D601" s="4"/>
       <c r="E601">
@@ -23528,7 +23531,7 @@
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D602" s="4"/>
       <c r="E602">
@@ -23538,7 +23541,7 @@
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D603" s="4"/>
       <c r="E603">
@@ -23558,7 +23561,7 @@
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D605" s="4"/>
       <c r="E605">
@@ -23568,7 +23571,7 @@
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D606" s="4"/>
       <c r="E606">
@@ -23578,7 +23581,7 @@
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D607" s="4"/>
       <c r="E607">
@@ -23588,7 +23591,7 @@
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D608" s="4"/>
       <c r="E608">
@@ -23598,7 +23601,7 @@
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D609" s="4"/>
       <c r="E609">
@@ -23608,7 +23611,7 @@
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D610" s="4"/>
       <c r="E610">
@@ -23618,7 +23621,7 @@
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D611" s="4"/>
       <c r="E611">
@@ -23628,7 +23631,7 @@
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D612" s="4"/>
       <c r="E612">
@@ -23638,7 +23641,7 @@
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D613" s="4"/>
       <c r="E613">
@@ -23648,7 +23651,7 @@
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D614" s="4"/>
       <c r="E614">
@@ -23658,7 +23661,7 @@
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D615" s="4"/>
       <c r="E615">
@@ -23668,7 +23671,7 @@
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D616" s="4"/>
       <c r="E616">
@@ -23678,7 +23681,7 @@
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D617" s="4"/>
       <c r="E617">
@@ -23688,7 +23691,7 @@
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D618" s="4"/>
       <c r="E618">
@@ -23698,7 +23701,7 @@
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D619" s="4"/>
       <c r="E619">
@@ -23708,7 +23711,7 @@
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D620" s="4"/>
       <c r="E620">
@@ -23718,7 +23721,7 @@
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D621" s="4"/>
       <c r="E621">
@@ -23728,7 +23731,7 @@
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D622" s="4"/>
       <c r="E622">
@@ -23738,7 +23741,7 @@
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D623" s="4"/>
       <c r="E623">
@@ -23748,7 +23751,7 @@
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D624" s="4"/>
       <c r="E624">
@@ -23758,7 +23761,7 @@
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D625" s="4"/>
       <c r="E625">
@@ -23768,7 +23771,7 @@
     <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D626" s="4"/>
       <c r="E626">
@@ -23778,7 +23781,7 @@
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D627" s="4"/>
       <c r="E627">
@@ -23788,7 +23791,7 @@
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D628" s="4"/>
       <c r="E628">
@@ -23798,7 +23801,7 @@
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D629" s="4"/>
       <c r="E629">
@@ -23818,7 +23821,7 @@
     <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D631" s="4"/>
       <c r="E631">
@@ -23828,7 +23831,7 @@
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D632" s="4"/>
       <c r="E632">
@@ -23838,7 +23841,7 @@
     <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D633" s="4"/>
       <c r="E633">
@@ -23848,7 +23851,7 @@
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D634" s="4"/>
       <c r="E634">
@@ -23858,7 +23861,7 @@
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D635" s="4"/>
       <c r="E635">
@@ -23868,7 +23871,7 @@
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D636" s="4"/>
       <c r="E636">
@@ -23878,7 +23881,7 @@
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D637" s="4"/>
       <c r="E637">
@@ -23888,7 +23891,7 @@
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D638" s="4"/>
       <c r="E638">
@@ -23898,7 +23901,7 @@
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D639" s="4"/>
       <c r="E639">
@@ -23918,7 +23921,7 @@
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="4">
         <f t="shared" ref="A641:A704" ca="1" si="10">RANDBETWEEN(1, 11)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D641" s="4"/>
       <c r="E641">
@@ -23928,7 +23931,7 @@
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D642" s="4"/>
       <c r="E642">
@@ -23938,7 +23941,7 @@
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D643" s="4"/>
       <c r="E643">
@@ -23958,7 +23961,7 @@
     <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D645" s="4"/>
       <c r="E645">
@@ -23968,7 +23971,7 @@
     <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D646" s="4"/>
       <c r="E646">
@@ -23978,7 +23981,7 @@
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D647" s="4"/>
       <c r="E647">
@@ -23988,7 +23991,7 @@
     <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D648" s="4"/>
       <c r="E648">
@@ -23998,7 +24001,7 @@
     <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D649" s="4"/>
       <c r="E649">
@@ -24008,7 +24011,7 @@
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D650" s="4"/>
       <c r="E650">
@@ -24018,7 +24021,7 @@
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D651" s="4"/>
       <c r="E651">
@@ -24028,7 +24031,7 @@
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D652" s="4"/>
       <c r="E652">
@@ -24038,7 +24041,7 @@
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D653" s="4"/>
       <c r="E653">
@@ -24048,7 +24051,7 @@
     <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D654" s="4"/>
       <c r="E654">
@@ -24058,7 +24061,7 @@
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D655" s="4"/>
       <c r="E655">
@@ -24068,7 +24071,7 @@
     <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D656" s="4"/>
       <c r="E656">
@@ -24078,7 +24081,7 @@
     <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D657" s="4"/>
       <c r="E657">
@@ -24088,7 +24091,7 @@
     <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D658" s="4"/>
       <c r="E658">
@@ -24108,7 +24111,7 @@
     <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D660" s="4"/>
       <c r="E660">
@@ -24118,7 +24121,7 @@
     <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D661" s="4"/>
       <c r="E661">
@@ -24128,7 +24131,7 @@
     <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D662" s="4"/>
       <c r="E662">
@@ -24138,7 +24141,7 @@
     <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D663" s="4"/>
       <c r="E663">
@@ -24148,7 +24151,7 @@
     <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D664" s="4"/>
       <c r="E664">
@@ -24158,7 +24161,7 @@
     <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D665" s="4"/>
       <c r="E665">
@@ -24168,7 +24171,7 @@
     <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D666" s="4"/>
       <c r="E666">
@@ -24178,7 +24181,7 @@
     <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D667" s="4"/>
       <c r="E667">
@@ -24188,7 +24191,7 @@
     <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D668" s="4"/>
       <c r="E668">
@@ -24198,7 +24201,7 @@
     <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D669" s="4"/>
       <c r="E669">
@@ -24208,7 +24211,7 @@
     <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D670" s="4"/>
       <c r="E670">
@@ -24218,7 +24221,7 @@
     <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D671" s="4"/>
       <c r="E671">
@@ -24228,7 +24231,7 @@
     <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D672" s="4"/>
       <c r="E672">
@@ -24238,7 +24241,7 @@
     <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D673" s="4"/>
       <c r="E673">
@@ -24258,7 +24261,7 @@
     <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D675" s="4"/>
       <c r="E675">
@@ -24288,7 +24291,7 @@
     <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D678" s="4"/>
       <c r="E678">
@@ -24298,7 +24301,7 @@
     <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D679" s="4"/>
       <c r="E679">
@@ -24308,7 +24311,7 @@
     <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D680" s="4"/>
       <c r="E680">
@@ -24318,7 +24321,7 @@
     <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D681" s="4"/>
       <c r="E681">
@@ -24328,7 +24331,7 @@
     <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D682" s="4"/>
       <c r="E682">
@@ -24338,7 +24341,7 @@
     <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D683" s="4"/>
       <c r="E683">
@@ -24358,7 +24361,7 @@
     <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D685" s="4"/>
       <c r="E685">
@@ -24368,7 +24371,7 @@
     <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D686" s="4"/>
       <c r="E686">
@@ -24378,7 +24381,7 @@
     <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D687" s="4"/>
       <c r="E687">
@@ -24388,7 +24391,7 @@
     <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D688" s="4"/>
       <c r="E688">
@@ -24398,7 +24401,7 @@
     <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D689" s="4"/>
       <c r="E689">
@@ -24408,7 +24411,7 @@
     <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D690" s="4"/>
       <c r="E690">
@@ -24418,7 +24421,7 @@
     <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D691" s="4"/>
       <c r="E691">
@@ -24428,7 +24431,7 @@
     <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D692" s="4"/>
       <c r="E692">
@@ -24438,7 +24441,7 @@
     <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D693" s="4"/>
       <c r="E693">
@@ -24448,7 +24451,7 @@
     <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D694" s="4"/>
       <c r="E694">
@@ -24458,7 +24461,7 @@
     <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D695" s="4"/>
       <c r="E695">
@@ -24468,7 +24471,7 @@
     <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D696" s="4"/>
       <c r="E696">
@@ -24478,7 +24481,7 @@
     <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D697" s="4"/>
       <c r="E697">
@@ -24488,7 +24491,7 @@
     <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D698" s="4"/>
       <c r="E698">
@@ -24498,7 +24501,7 @@
     <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D699" s="4"/>
       <c r="E699">
@@ -24508,7 +24511,7 @@
     <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D700" s="4"/>
       <c r="E700">
@@ -24518,7 +24521,7 @@
     <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D701" s="4"/>
       <c r="E701">
@@ -24528,7 +24531,7 @@
     <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D702" s="4"/>
       <c r="E702">
@@ -24548,7 +24551,7 @@
     <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D704" s="4"/>
       <c r="E704">
@@ -24558,7 +24561,7 @@
     <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" s="4">
         <f t="shared" ref="A705:A768" ca="1" si="11">RANDBETWEEN(1, 11)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D705" s="4"/>
       <c r="E705">
@@ -24568,7 +24571,7 @@
     <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D706" s="4"/>
       <c r="E706">
@@ -24578,7 +24581,7 @@
     <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D707" s="4"/>
       <c r="E707">
@@ -24588,7 +24591,7 @@
     <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D708" s="4"/>
       <c r="E708">
@@ -24598,7 +24601,7 @@
     <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D709" s="4"/>
       <c r="E709">
@@ -24608,7 +24611,7 @@
     <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D710" s="4"/>
       <c r="E710">
@@ -24618,7 +24621,7 @@
     <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D711" s="4"/>
       <c r="E711">
@@ -24638,7 +24641,7 @@
     <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D713" s="4"/>
       <c r="E713">
@@ -24648,7 +24651,7 @@
     <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D714" s="4"/>
       <c r="E714">
@@ -24658,7 +24661,7 @@
     <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D715" s="4"/>
       <c r="E715">
@@ -24668,7 +24671,7 @@
     <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D716" s="4"/>
       <c r="E716">
@@ -24678,7 +24681,7 @@
     <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D717" s="4"/>
       <c r="E717">
@@ -24688,7 +24691,7 @@
     <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D718" s="4"/>
       <c r="E718">
@@ -24698,7 +24701,7 @@
     <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D719" s="4"/>
       <c r="E719">
@@ -24708,7 +24711,7 @@
     <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D720" s="4"/>
       <c r="E720">
@@ -24718,7 +24721,7 @@
     <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D721" s="4"/>
       <c r="E721">
@@ -24738,7 +24741,7 @@
     <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D723" s="4"/>
       <c r="E723">
@@ -24748,7 +24751,7 @@
     <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D724" s="4"/>
       <c r="E724">
@@ -24758,7 +24761,7 @@
     <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D725" s="4"/>
       <c r="E725">
@@ -24768,7 +24771,7 @@
     <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D726" s="4"/>
       <c r="E726">
@@ -24778,7 +24781,7 @@
     <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D727" s="4"/>
       <c r="E727">
@@ -24798,7 +24801,7 @@
     <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D729" s="4"/>
       <c r="E729">
@@ -24808,7 +24811,7 @@
     <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D730" s="4"/>
       <c r="E730">
@@ -24818,7 +24821,7 @@
     <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D731" s="4"/>
       <c r="E731">
@@ -24828,7 +24831,7 @@
     <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D732" s="4"/>
       <c r="E732">
@@ -24838,7 +24841,7 @@
     <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D733" s="4"/>
       <c r="E733">
@@ -24848,7 +24851,7 @@
     <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D734" s="4"/>
       <c r="E734">
@@ -24858,7 +24861,7 @@
     <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D735" s="4"/>
       <c r="E735">
@@ -24868,7 +24871,7 @@
     <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D736" s="4"/>
       <c r="E736">
@@ -24888,7 +24891,7 @@
     <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D738" s="4"/>
       <c r="E738">
@@ -24898,7 +24901,7 @@
     <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D739" s="4"/>
       <c r="E739">
@@ -24918,7 +24921,7 @@
     <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D741" s="4"/>
       <c r="E741">
@@ -24928,7 +24931,7 @@
     <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D742" s="4"/>
       <c r="E742">
@@ -24938,7 +24941,7 @@
     <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D743" s="4"/>
       <c r="E743">
@@ -24948,7 +24951,7 @@
     <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D744" s="4"/>
       <c r="E744">
@@ -24958,7 +24961,7 @@
     <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D745" s="4"/>
       <c r="E745">
@@ -24978,7 +24981,7 @@
     <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D747" s="4"/>
       <c r="E747">
@@ -24988,7 +24991,7 @@
     <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D748" s="4"/>
       <c r="E748">
@@ -24998,7 +25001,7 @@
     <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D749" s="4"/>
       <c r="E749">
@@ -25008,7 +25011,7 @@
     <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D750" s="4"/>
       <c r="E750">
@@ -25018,7 +25021,7 @@
     <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D751" s="4"/>
       <c r="E751">
@@ -25028,7 +25031,7 @@
     <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D752" s="4"/>
       <c r="E752">
@@ -25038,7 +25041,7 @@
     <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D753" s="4"/>
       <c r="E753">
@@ -25048,7 +25051,7 @@
     <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D754" s="4"/>
       <c r="E754">
@@ -25058,7 +25061,7 @@
     <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D755" s="4"/>
       <c r="E755">
@@ -25068,7 +25071,7 @@
     <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D756" s="4"/>
       <c r="E756">
@@ -25078,7 +25081,7 @@
     <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D757" s="4"/>
       <c r="E757">
@@ -25098,7 +25101,7 @@
     <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D759" s="4"/>
       <c r="E759">
@@ -25118,7 +25121,7 @@
     <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D761" s="4"/>
       <c r="E761">
@@ -25128,7 +25131,7 @@
     <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D762" s="4"/>
       <c r="E762">
@@ -25138,7 +25141,7 @@
     <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D763" s="4"/>
       <c r="E763">
@@ -25148,7 +25151,7 @@
     <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D764" s="4"/>
       <c r="E764">
@@ -25158,7 +25161,7 @@
     <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D765" s="4"/>
       <c r="E765">
@@ -25168,7 +25171,7 @@
     <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D766" s="4"/>
       <c r="E766">
@@ -25178,7 +25181,7 @@
     <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D767" s="4"/>
       <c r="E767">
@@ -25188,7 +25191,7 @@
     <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D768" s="4"/>
       <c r="E768">
@@ -25208,7 +25211,7 @@
     <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D770" s="4"/>
       <c r="E770">
@@ -25218,7 +25221,7 @@
     <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D771" s="4"/>
       <c r="E771">
@@ -25228,7 +25231,7 @@
     <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D772" s="4"/>
       <c r="E772">
@@ -25238,7 +25241,7 @@
     <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D773" s="4"/>
       <c r="E773">
@@ -25248,7 +25251,7 @@
     <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D774" s="4"/>
       <c r="E774">
@@ -25258,7 +25261,7 @@
     <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D775" s="4"/>
       <c r="E775">
@@ -25268,7 +25271,7 @@
     <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D776" s="4"/>
       <c r="E776">
@@ -25278,7 +25281,7 @@
     <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D777" s="4"/>
       <c r="E777">
@@ -25288,7 +25291,7 @@
     <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D778" s="4"/>
       <c r="E778">
@@ -25298,7 +25301,7 @@
     <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D779" s="4"/>
       <c r="E779">
@@ -25308,7 +25311,7 @@
     <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D780" s="4"/>
       <c r="E780">
@@ -25318,7 +25321,7 @@
     <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D781" s="4"/>
       <c r="E781">
@@ -25328,7 +25331,7 @@
     <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D782" s="4"/>
       <c r="E782">
@@ -25338,7 +25341,7 @@
     <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D783" s="4"/>
       <c r="E783">
@@ -25348,7 +25351,7 @@
     <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D784" s="4"/>
       <c r="E784">
@@ -25358,7 +25361,7 @@
     <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D785" s="4"/>
       <c r="E785">
@@ -25368,7 +25371,7 @@
     <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D786" s="4"/>
       <c r="E786">
@@ -25398,7 +25401,7 @@
     <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D789" s="4"/>
       <c r="E789">
@@ -25408,7 +25411,7 @@
     <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D790" s="4"/>
       <c r="E790">
@@ -25418,7 +25421,7 @@
     <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D791" s="4"/>
       <c r="E791">
@@ -25428,7 +25431,7 @@
     <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D792" s="4"/>
       <c r="E792">
@@ -25438,7 +25441,7 @@
     <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D793" s="4"/>
       <c r="E793">
@@ -25448,7 +25451,7 @@
     <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D794" s="4"/>
       <c r="E794">
@@ -25458,7 +25461,7 @@
     <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D795" s="4"/>
       <c r="E795">
@@ -25468,7 +25471,7 @@
     <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D796" s="4"/>
       <c r="E796">
@@ -25478,7 +25481,7 @@
     <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D797" s="4"/>
       <c r="E797">
@@ -25488,7 +25491,7 @@
     <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D798" s="4"/>
       <c r="E798">
@@ -25498,7 +25501,7 @@
     <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D799" s="4"/>
       <c r="E799">
@@ -25528,7 +25531,7 @@
     <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D802" s="4"/>
       <c r="E802">
@@ -25538,7 +25541,7 @@
     <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D803" s="4"/>
       <c r="E803">
@@ -25548,7 +25551,7 @@
     <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D804" s="4"/>
       <c r="E804">
@@ -25558,7 +25561,7 @@
     <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D805" s="4"/>
       <c r="E805">
@@ -25568,7 +25571,7 @@
     <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D806" s="4"/>
       <c r="E806">
@@ -25578,7 +25581,7 @@
     <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D807" s="4"/>
       <c r="E807">
@@ -25588,7 +25591,7 @@
     <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D808" s="4"/>
       <c r="E808">
@@ -25598,7 +25601,7 @@
     <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D809" s="4"/>
       <c r="E809">
@@ -25608,7 +25611,7 @@
     <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D810" s="4"/>
       <c r="E810">
@@ -25618,7 +25621,7 @@
     <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D811" s="4"/>
       <c r="E811">
@@ -25638,7 +25641,7 @@
     <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D813" s="4"/>
       <c r="E813">
@@ -25648,7 +25651,7 @@
     <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D814" s="4"/>
       <c r="E814">
@@ -25658,7 +25661,7 @@
     <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D815" s="4"/>
       <c r="E815">
@@ -25678,7 +25681,7 @@
     <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D817" s="4"/>
       <c r="E817">
@@ -25688,7 +25691,7 @@
     <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D818" s="4"/>
       <c r="E818">
@@ -25708,7 +25711,7 @@
     <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D820" s="4"/>
       <c r="E820">
@@ -25718,7 +25721,7 @@
     <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D821" s="4"/>
       <c r="E821">
@@ -25728,7 +25731,7 @@
     <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D822" s="4"/>
       <c r="E822">
@@ -25748,7 +25751,7 @@
     <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D824" s="4"/>
       <c r="E824">
@@ -25758,7 +25761,7 @@
     <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D825" s="4"/>
       <c r="E825">
@@ -25768,7 +25771,7 @@
     <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D826" s="4"/>
       <c r="E826">
@@ -25778,7 +25781,7 @@
     <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D827" s="4"/>
       <c r="E827">
@@ -25788,7 +25791,7 @@
     <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D828" s="4"/>
       <c r="E828">
@@ -25798,7 +25801,7 @@
     <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D829" s="4"/>
       <c r="E829">
@@ -25808,7 +25811,7 @@
     <row r="830" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A830" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D830" s="4"/>
       <c r="E830">
@@ -25818,7 +25821,7 @@
     <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D831" s="4"/>
       <c r="E831">
@@ -25828,7 +25831,7 @@
     <row r="832" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A832" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D832" s="4"/>
       <c r="E832">
@@ -25838,7 +25841,7 @@
     <row r="833" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A833" s="4">
         <f t="shared" ref="A833:A896" ca="1" si="13">RANDBETWEEN(1, 11)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D833" s="4"/>
       <c r="E833">
@@ -25848,7 +25851,7 @@
     <row r="834" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A834" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D834" s="4"/>
       <c r="E834">
@@ -25858,7 +25861,7 @@
     <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D835" s="4"/>
       <c r="E835">
@@ -25868,7 +25871,7 @@
     <row r="836" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A836" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D836" s="4"/>
       <c r="E836">
@@ -25878,7 +25881,7 @@
     <row r="837" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A837" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D837" s="4"/>
       <c r="E837">
@@ -25888,7 +25891,7 @@
     <row r="838" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A838" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D838" s="4"/>
       <c r="E838">
@@ -25898,7 +25901,7 @@
     <row r="839" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A839" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D839" s="4"/>
       <c r="E839">
@@ -25908,7 +25911,7 @@
     <row r="840" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A840" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D840" s="4"/>
       <c r="E840">
@@ -25918,7 +25921,7 @@
     <row r="841" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A841" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D841" s="4"/>
       <c r="E841">
@@ -25928,7 +25931,7 @@
     <row r="842" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A842" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D842" s="4"/>
       <c r="E842">
@@ -25938,7 +25941,7 @@
     <row r="843" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A843" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D843" s="4"/>
       <c r="E843">
@@ -25948,7 +25951,7 @@
     <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D844" s="4"/>
       <c r="E844">
@@ -25958,7 +25961,7 @@
     <row r="845" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A845" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D845" s="4"/>
       <c r="E845">
@@ -25968,7 +25971,7 @@
     <row r="846" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A846" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D846" s="4"/>
       <c r="E846">
@@ -25978,7 +25981,7 @@
     <row r="847" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A847" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D847" s="4"/>
       <c r="E847">
@@ -25988,7 +25991,7 @@
     <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D848" s="4"/>
       <c r="E848">
@@ -25998,7 +26001,7 @@
     <row r="849" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A849" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D849" s="4"/>
       <c r="E849">
@@ -26008,7 +26011,7 @@
     <row r="850" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A850" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D850" s="4"/>
       <c r="E850">
@@ -26018,7 +26021,7 @@
     <row r="851" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A851" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D851" s="4"/>
       <c r="E851">
@@ -26028,7 +26031,7 @@
     <row r="852" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A852" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D852" s="4"/>
       <c r="E852">
@@ -26038,7 +26041,7 @@
     <row r="853" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A853" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D853" s="4"/>
       <c r="E853">
@@ -26048,7 +26051,7 @@
     <row r="854" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A854" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D854" s="4"/>
       <c r="E854">
@@ -26058,7 +26061,7 @@
     <row r="855" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A855" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D855" s="4"/>
       <c r="E855">
@@ -26068,7 +26071,7 @@
     <row r="856" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A856" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D856" s="4"/>
       <c r="E856">
@@ -26088,7 +26091,7 @@
     <row r="858" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A858" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D858" s="4"/>
       <c r="E858">
@@ -26098,7 +26101,7 @@
     <row r="859" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A859" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D859" s="4"/>
       <c r="E859">
@@ -26108,7 +26111,7 @@
     <row r="860" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A860" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D860" s="4"/>
       <c r="E860">
@@ -26118,7 +26121,7 @@
     <row r="861" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A861" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D861" s="4"/>
       <c r="E861">
@@ -26128,7 +26131,7 @@
     <row r="862" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A862" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D862" s="4"/>
       <c r="E862">
@@ -26138,7 +26141,7 @@
     <row r="863" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A863" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D863" s="4"/>
       <c r="E863">
@@ -26148,7 +26151,7 @@
     <row r="864" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A864" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D864" s="4"/>
       <c r="E864">
@@ -26158,7 +26161,7 @@
     <row r="865" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A865" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D865" s="4"/>
       <c r="E865">
@@ -26178,7 +26181,7 @@
     <row r="867" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A867" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D867" s="4"/>
       <c r="E867">
@@ -26188,7 +26191,7 @@
     <row r="868" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A868" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D868" s="4"/>
       <c r="E868">
@@ -26198,7 +26201,7 @@
     <row r="869" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A869" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D869" s="4"/>
       <c r="E869">
@@ -26208,7 +26211,7 @@
     <row r="870" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A870" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D870" s="4"/>
       <c r="E870">
@@ -26218,7 +26221,7 @@
     <row r="871" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A871" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D871" s="4"/>
       <c r="E871">
@@ -26228,7 +26231,7 @@
     <row r="872" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A872" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D872" s="4"/>
       <c r="E872">
@@ -26238,7 +26241,7 @@
     <row r="873" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A873" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D873" s="4"/>
       <c r="E873">
@@ -26248,7 +26251,7 @@
     <row r="874" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A874" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D874" s="4"/>
       <c r="E874">
@@ -26258,7 +26261,7 @@
     <row r="875" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A875" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D875" s="4"/>
       <c r="E875">
@@ -26268,7 +26271,7 @@
     <row r="876" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A876" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D876" s="4"/>
       <c r="E876">
@@ -26278,7 +26281,7 @@
     <row r="877" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A877" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D877" s="4"/>
       <c r="E877">
@@ -26288,7 +26291,7 @@
     <row r="878" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A878" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D878" s="4"/>
       <c r="E878">
@@ -26298,7 +26301,7 @@
     <row r="879" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A879" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D879" s="4"/>
       <c r="E879">
@@ -26308,7 +26311,7 @@
     <row r="880" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A880" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D880" s="4"/>
       <c r="E880">
@@ -26318,7 +26321,7 @@
     <row r="881" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A881" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D881" s="4"/>
       <c r="E881">
@@ -26328,7 +26331,7 @@
     <row r="882" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A882" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D882" s="4"/>
       <c r="E882">
@@ -26348,7 +26351,7 @@
     <row r="884" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A884" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D884" s="4"/>
       <c r="E884">
@@ -26358,7 +26361,7 @@
     <row r="885" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A885" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D885" s="4"/>
       <c r="E885">
@@ -26368,7 +26371,7 @@
     <row r="886" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A886" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D886" s="4"/>
       <c r="E886">
@@ -26378,7 +26381,7 @@
     <row r="887" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A887" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D887" s="4"/>
       <c r="E887">
@@ -26388,7 +26391,7 @@
     <row r="888" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A888" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D888" s="4"/>
       <c r="E888">
@@ -26398,7 +26401,7 @@
     <row r="889" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A889" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D889" s="4"/>
       <c r="E889">
@@ -26408,7 +26411,7 @@
     <row r="890" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A890" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D890" s="4"/>
       <c r="E890">
@@ -26418,7 +26421,7 @@
     <row r="891" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A891" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D891" s="4"/>
       <c r="E891">
@@ -26428,7 +26431,7 @@
     <row r="892" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A892" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D892" s="4"/>
       <c r="E892">
@@ -26438,7 +26441,7 @@
     <row r="893" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A893" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D893" s="4"/>
       <c r="E893">
@@ -26448,7 +26451,7 @@
     <row r="894" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A894" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D894" s="4"/>
       <c r="E894">
@@ -26458,7 +26461,7 @@
     <row r="895" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A895" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D895" s="4"/>
       <c r="E895">
@@ -26468,7 +26471,7 @@
     <row r="896" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A896" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D896" s="4"/>
       <c r="E896">
@@ -26478,7 +26481,7 @@
     <row r="897" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A897" s="4">
         <f t="shared" ref="A897:A960" ca="1" si="14">RANDBETWEEN(1, 11)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D897" s="4"/>
       <c r="E897">
@@ -26488,7 +26491,7 @@
     <row r="898" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A898" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D898" s="4"/>
       <c r="E898">
@@ -26498,7 +26501,7 @@
     <row r="899" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A899" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D899" s="4"/>
       <c r="E899">
@@ -26528,7 +26531,7 @@
     <row r="902" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A902" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D902" s="4"/>
       <c r="E902">
@@ -26538,7 +26541,7 @@
     <row r="903" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A903" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D903" s="4"/>
       <c r="E903">
@@ -26548,7 +26551,7 @@
     <row r="904" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A904" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D904" s="4"/>
       <c r="E904">
@@ -26558,7 +26561,7 @@
     <row r="905" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A905" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D905" s="4"/>
       <c r="E905">
@@ -26568,7 +26571,7 @@
     <row r="906" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A906" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D906" s="4"/>
       <c r="E906">
@@ -26578,7 +26581,7 @@
     <row r="907" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A907" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D907" s="4"/>
       <c r="E907">
@@ -26588,7 +26591,7 @@
     <row r="908" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A908" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D908" s="4"/>
       <c r="E908">
@@ -26598,7 +26601,7 @@
     <row r="909" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A909" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D909" s="4"/>
       <c r="E909">
@@ -26608,7 +26611,7 @@
     <row r="910" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A910" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D910" s="4"/>
       <c r="E910">
@@ -26618,7 +26621,7 @@
     <row r="911" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A911" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D911" s="4"/>
       <c r="E911">
@@ -26628,7 +26631,7 @@
     <row r="912" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A912" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D912" s="4"/>
       <c r="E912">
@@ -26638,7 +26641,7 @@
     <row r="913" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A913" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D913" s="4"/>
       <c r="E913">
@@ -26648,7 +26651,7 @@
     <row r="914" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A914" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D914" s="4"/>
       <c r="E914">
@@ -26658,7 +26661,7 @@
     <row r="915" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A915" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D915" s="4"/>
       <c r="E915">
@@ -26668,7 +26671,7 @@
     <row r="916" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A916" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D916" s="4"/>
       <c r="E916">
@@ -26678,7 +26681,7 @@
     <row r="917" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A917" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D917" s="4"/>
       <c r="E917">
@@ -26688,7 +26691,7 @@
     <row r="918" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A918" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D918" s="4"/>
       <c r="E918">
@@ -26708,7 +26711,7 @@
     <row r="920" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A920" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D920" s="4"/>
       <c r="E920">
@@ -26718,7 +26721,7 @@
     <row r="921" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A921" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D921" s="4"/>
       <c r="E921">
@@ -26728,7 +26731,7 @@
     <row r="922" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A922" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D922" s="4"/>
       <c r="E922">
@@ -26738,7 +26741,7 @@
     <row r="923" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A923" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D923" s="4"/>
       <c r="E923">
@@ -26748,7 +26751,7 @@
     <row r="924" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A924" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D924" s="4"/>
       <c r="E924">
@@ -26758,7 +26761,7 @@
     <row r="925" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A925" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D925" s="4"/>
       <c r="E925">
@@ -26768,7 +26771,7 @@
     <row r="926" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A926" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D926" s="4"/>
       <c r="E926">
@@ -26778,7 +26781,7 @@
     <row r="927" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A927" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D927" s="4"/>
       <c r="E927">
@@ -26788,7 +26791,7 @@
     <row r="928" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A928" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D928" s="4"/>
       <c r="E928">
@@ -26798,7 +26801,7 @@
     <row r="929" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A929" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D929" s="4"/>
       <c r="E929">
@@ -26808,7 +26811,7 @@
     <row r="930" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A930" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D930" s="4"/>
       <c r="E930">
@@ -26818,7 +26821,7 @@
     <row r="931" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A931" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D931" s="4"/>
       <c r="E931">
@@ -26828,7 +26831,7 @@
     <row r="932" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A932" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D932" s="4"/>
       <c r="E932">
@@ -26838,7 +26841,7 @@
     <row r="933" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A933" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D933" s="4"/>
       <c r="E933">
@@ -26848,7 +26851,7 @@
     <row r="934" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A934" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D934" s="4"/>
       <c r="E934">
@@ -26858,7 +26861,7 @@
     <row r="935" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A935" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D935" s="4"/>
       <c r="E935">
@@ -26868,7 +26871,7 @@
     <row r="936" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A936" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D936" s="4"/>
       <c r="E936">
@@ -26878,7 +26881,7 @@
     <row r="937" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A937" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D937" s="4"/>
       <c r="E937">
@@ -26888,7 +26891,7 @@
     <row r="938" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A938" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D938" s="4"/>
       <c r="E938">
@@ -26908,7 +26911,7 @@
     <row r="940" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A940" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D940" s="4"/>
       <c r="E940">
@@ -26918,7 +26921,7 @@
     <row r="941" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A941" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D941" s="4"/>
       <c r="E941">
@@ -26928,7 +26931,7 @@
     <row r="942" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A942" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D942" s="4"/>
       <c r="E942">
@@ -26938,7 +26941,7 @@
     <row r="943" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A943" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D943" s="4"/>
       <c r="E943">
@@ -26948,7 +26951,7 @@
     <row r="944" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A944" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D944" s="4"/>
       <c r="E944">
@@ -26958,7 +26961,7 @@
     <row r="945" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A945" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D945" s="4"/>
       <c r="E945">
@@ -26968,7 +26971,7 @@
     <row r="946" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A946" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D946" s="4"/>
       <c r="E946">
@@ -26988,7 +26991,7 @@
     <row r="948" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A948" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D948" s="4"/>
       <c r="E948">
@@ -26998,7 +27001,7 @@
     <row r="949" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A949" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D949" s="4"/>
       <c r="E949">
@@ -27008,7 +27011,7 @@
     <row r="950" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A950" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D950" s="4"/>
       <c r="E950">
@@ -27018,7 +27021,7 @@
     <row r="951" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A951" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D951" s="4"/>
       <c r="E951">
@@ -27028,7 +27031,7 @@
     <row r="952" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A952" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D952" s="4"/>
       <c r="E952">
@@ -27038,7 +27041,7 @@
     <row r="953" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A953" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D953" s="4"/>
       <c r="E953">
@@ -27048,7 +27051,7 @@
     <row r="954" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A954" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D954" s="4"/>
       <c r="E954">
@@ -27058,7 +27061,7 @@
     <row r="955" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A955" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D955" s="4"/>
       <c r="E955">
@@ -27068,7 +27071,7 @@
     <row r="956" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A956" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D956" s="4"/>
       <c r="E956">
@@ -27078,7 +27081,7 @@
     <row r="957" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A957" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D957" s="4"/>
       <c r="E957">
@@ -27088,7 +27091,7 @@
     <row r="958" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A958" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D958" s="4"/>
       <c r="E958">
@@ -27098,7 +27101,7 @@
     <row r="959" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A959" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D959" s="4"/>
       <c r="E959">
@@ -27108,7 +27111,7 @@
     <row r="960" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A960" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D960" s="4"/>
       <c r="E960">
@@ -27118,7 +27121,7 @@
     <row r="961" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A961" s="4">
         <f t="shared" ref="A961:A1000" ca="1" si="15">RANDBETWEEN(1, 11)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D961" s="4"/>
       <c r="E961">
@@ -27128,7 +27131,7 @@
     <row r="962" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A962" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D962" s="4"/>
       <c r="E962">
@@ -27138,7 +27141,7 @@
     <row r="963" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A963" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D963" s="4"/>
       <c r="E963">
@@ -27158,7 +27161,7 @@
     <row r="965" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A965" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D965" s="4"/>
       <c r="E965">
@@ -27168,7 +27171,7 @@
     <row r="966" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A966" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D966" s="4"/>
       <c r="E966">
@@ -27178,7 +27181,7 @@
     <row r="967" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A967" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D967" s="4"/>
       <c r="E967">
@@ -27188,7 +27191,7 @@
     <row r="968" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A968" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D968" s="4"/>
       <c r="E968">
@@ -27198,7 +27201,7 @@
     <row r="969" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A969" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D969" s="4"/>
       <c r="E969">
@@ -27208,7 +27211,7 @@
     <row r="970" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A970" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D970" s="4"/>
       <c r="E970">
@@ -27218,7 +27221,7 @@
     <row r="971" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A971" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D971" s="4"/>
       <c r="E971">
@@ -27228,7 +27231,7 @@
     <row r="972" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A972" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D972" s="4"/>
       <c r="E972">
@@ -27238,7 +27241,7 @@
     <row r="973" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A973" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D973" s="4"/>
       <c r="E973">
@@ -27261,7 +27264,7 @@
     <row r="975" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A975" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B975">
         <v>9</v>
@@ -27274,7 +27277,7 @@
     <row r="976" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A976" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B976">
         <v>4</v>
@@ -27287,7 +27290,7 @@
     <row r="977" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A977" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B977">
         <v>5</v>
@@ -27300,7 +27303,7 @@
     <row r="978" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A978" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B978">
         <v>3</v>
@@ -27313,7 +27316,7 @@
     <row r="979" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A979" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B979">
         <v>5</v>
@@ -27326,7 +27329,7 @@
     <row r="980" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A980" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B980">
         <v>3</v>
@@ -27339,7 +27342,7 @@
     <row r="981" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A981" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B981">
         <v>3</v>
@@ -27352,7 +27355,7 @@
     <row r="982" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A982" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B982">
         <v>4</v>
@@ -27365,7 +27368,7 @@
     <row r="983" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A983" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B983">
         <v>7</v>
@@ -27378,7 +27381,7 @@
     <row r="984" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A984" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B984">
         <v>11</v>
@@ -27391,7 +27394,7 @@
     <row r="985" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A985" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B985">
         <v>4</v>
@@ -27404,7 +27407,7 @@
     <row r="986" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A986" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B986">
         <v>6</v>
@@ -27417,7 +27420,7 @@
     <row r="987" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A987" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B987">
         <v>1</v>
@@ -27430,7 +27433,7 @@
     <row r="988" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A988" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B988">
         <v>4</v>
@@ -27443,7 +27446,7 @@
     <row r="989" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A989" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B989">
         <v>2</v>
@@ -27456,7 +27459,7 @@
     <row r="990" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A990" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B990">
         <v>11</v>
@@ -27469,7 +27472,7 @@
     <row r="991" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A991" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B991">
         <v>6</v>
@@ -27482,7 +27485,7 @@
     <row r="992" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A992" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B992">
         <v>3</v>
@@ -27495,7 +27498,7 @@
     <row r="993" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A993" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B993">
         <v>6</v>
@@ -27508,7 +27511,7 @@
     <row r="994" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A994" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B994">
         <v>8</v>
@@ -27521,7 +27524,7 @@
     <row r="995" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A995" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B995">
         <v>8</v>
@@ -27534,7 +27537,7 @@
     <row r="996" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A996" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B996">
         <v>5</v>
@@ -27547,7 +27550,7 @@
     <row r="997" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A997" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B997">
         <v>11</v>
@@ -27560,7 +27563,7 @@
     <row r="998" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A998" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B998">
         <v>4</v>
@@ -27573,7 +27576,7 @@
     <row r="999" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A999" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B999">
         <v>8</v>
@@ -27586,7 +27589,7 @@
     <row r="1000" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1000" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1000">
         <v>10</v>

--- a/Dataset/Cause-effect-pairs-in-school.xlsx
+++ b/Dataset/Cause-effect-pairs-in-school.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{9C830ED0-A253-4296-B637-858908BA8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2B4C3F6-73F1-4599-ADA8-47ECA5DC395D}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{9C830ED0-A253-4296-B637-858908BA8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EAA0DBF-A73C-4AC1-B635-01AB9A66D95E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18DE6829-2EBC-4995-95BF-814080D6C527}"/>
   </bookViews>
@@ -3491,7 +3491,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C618" sqref="C618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4055,7 +4055,7 @@
         <v>1003</v>
       </c>
       <c r="C39" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>1003</v>
@@ -4181,7 +4181,7 @@
         <v>1000</v>
       </c>
       <c r="C48" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>1001</v>
@@ -4195,7 +4195,7 @@
         <v>1000</v>
       </c>
       <c r="C49" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>1009</v>
@@ -4237,7 +4237,7 @@
         <v>1003</v>
       </c>
       <c r="C52" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>1008</v>
@@ -4335,7 +4335,7 @@
         <v>1003</v>
       </c>
       <c r="C59" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>1004</v>
@@ -4461,7 +4461,7 @@
         <v>1003</v>
       </c>
       <c r="C68" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>1002</v>
@@ -4489,7 +4489,7 @@
         <v>1003</v>
       </c>
       <c r="C70" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>1005</v>
@@ -4587,7 +4587,7 @@
         <v>1003</v>
       </c>
       <c r="C77" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>1002</v>
@@ -4643,7 +4643,7 @@
         <v>1003</v>
       </c>
       <c r="C81" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>1010</v>
@@ -4778,7 +4778,7 @@
         <v>1003</v>
       </c>
       <c r="C90" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>1004</v>
@@ -4862,7 +4862,7 @@
         <v>1000</v>
       </c>
       <c r="C96" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>1005</v>
@@ -4876,7 +4876,7 @@
         <v>1003</v>
       </c>
       <c r="C97" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>1007</v>
@@ -4927,7 +4927,7 @@
         <v>1003</v>
       </c>
       <c r="C100" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>1000</v>
@@ -5207,7 +5207,7 @@
         <v>1000</v>
       </c>
       <c r="C120" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>1004</v>
@@ -5403,7 +5403,7 @@
         <v>1000</v>
       </c>
       <c r="C134" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>1009</v>
@@ -5431,7 +5431,7 @@
         <v>1000</v>
       </c>
       <c r="C136" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>1000</v>
@@ -5669,7 +5669,7 @@
         <v>1003</v>
       </c>
       <c r="C153" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>1010</v>
@@ -5832,7 +5832,7 @@
         <v>1003</v>
       </c>
       <c r="C164" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>1009</v>
@@ -5874,7 +5874,7 @@
         <v>1000</v>
       </c>
       <c r="C167" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>1005</v>
@@ -6672,7 +6672,7 @@
         <v>1003</v>
       </c>
       <c r="C224" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>1007</v>
@@ -6756,7 +6756,7 @@
         <v>1000</v>
       </c>
       <c r="C230" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>1009</v>
@@ -6854,7 +6854,7 @@
         <v>1003</v>
       </c>
       <c r="C237" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>1007</v>
@@ -6868,7 +6868,7 @@
         <v>1003</v>
       </c>
       <c r="C238" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>1000</v>
@@ -6952,7 +6952,7 @@
         <v>1003</v>
       </c>
       <c r="C244" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>1003</v>
@@ -7008,7 +7008,7 @@
         <v>1003</v>
       </c>
       <c r="C248" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>1009</v>
@@ -7050,7 +7050,7 @@
         <v>1000</v>
       </c>
       <c r="C251" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>1000</v>
@@ -7176,7 +7176,7 @@
         <v>1003</v>
       </c>
       <c r="C260" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>1007</v>
@@ -7358,7 +7358,7 @@
         <v>1000</v>
       </c>
       <c r="C273" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>1010</v>
@@ -7554,7 +7554,7 @@
         <v>1003</v>
       </c>
       <c r="C287" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>1007</v>
@@ -7633,7 +7633,7 @@
         <v>1003</v>
       </c>
       <c r="C292" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>1009</v>
@@ -7689,7 +7689,7 @@
         <v>1003</v>
       </c>
       <c r="C296" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>1001</v>
@@ -7703,7 +7703,7 @@
         <v>1003</v>
       </c>
       <c r="C297" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>1000</v>
@@ -7815,7 +7815,7 @@
         <v>1000</v>
       </c>
       <c r="C305" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>1003</v>
@@ -7880,7 +7880,7 @@
         <v>1000</v>
       </c>
       <c r="C309" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>1010</v>
@@ -7894,7 +7894,7 @@
         <v>1000</v>
       </c>
       <c r="C310" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>1006</v>
@@ -7950,7 +7950,7 @@
         <v>1000</v>
       </c>
       <c r="C314" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>1009</v>
@@ -7964,7 +7964,7 @@
         <v>1003</v>
       </c>
       <c r="C315" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>1003</v>
@@ -8020,7 +8020,7 @@
         <v>1003</v>
       </c>
       <c r="C319" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>1005</v>
@@ -8034,7 +8034,7 @@
         <v>1003</v>
       </c>
       <c r="C320" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>1002</v>
@@ -8062,7 +8062,7 @@
         <v>1000</v>
       </c>
       <c r="C322" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>1008</v>
@@ -8118,7 +8118,7 @@
         <v>1000</v>
       </c>
       <c r="C326" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>1001</v>
@@ -8132,7 +8132,7 @@
         <v>1000</v>
       </c>
       <c r="C327" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>1008</v>
@@ -8202,7 +8202,7 @@
         <v>1003</v>
       </c>
       <c r="C332" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>1002</v>
@@ -8314,7 +8314,7 @@
         <v>1003</v>
       </c>
       <c r="C340" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>1002</v>
@@ -8342,7 +8342,7 @@
         <v>1000</v>
       </c>
       <c r="C342" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>1002</v>
@@ -8412,7 +8412,7 @@
         <v>1003</v>
       </c>
       <c r="C347" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>1000</v>
@@ -8426,7 +8426,7 @@
         <v>1000</v>
       </c>
       <c r="C348" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>1001</v>
@@ -8482,7 +8482,7 @@
         <v>1000</v>
       </c>
       <c r="C352" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>1002</v>
@@ -8510,7 +8510,7 @@
         <v>1000</v>
       </c>
       <c r="C354" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>1000</v>
@@ -8538,7 +8538,7 @@
         <v>1003</v>
       </c>
       <c r="C356" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>1003</v>
@@ -8762,7 +8762,7 @@
         <v>1003</v>
       </c>
       <c r="C372" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>1004</v>
@@ -8813,7 +8813,7 @@
         <v>1000</v>
       </c>
       <c r="C375" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>1007</v>
@@ -9037,7 +9037,7 @@
         <v>1003</v>
       </c>
       <c r="C391" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>1000</v>
@@ -9107,7 +9107,7 @@
         <v>1003</v>
       </c>
       <c r="C396" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>1005</v>
@@ -9247,7 +9247,7 @@
         <v>1000</v>
       </c>
       <c r="C406" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>1001</v>
@@ -9275,7 +9275,7 @@
         <v>1000</v>
       </c>
       <c r="C408" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>1006</v>
@@ -9359,7 +9359,7 @@
         <v>1003</v>
       </c>
       <c r="C414" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>1000</v>
@@ -9471,7 +9471,7 @@
         <v>1000</v>
       </c>
       <c r="C422" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>1000</v>
@@ -9611,7 +9611,7 @@
         <v>1000</v>
       </c>
       <c r="C432" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>1004</v>
@@ -9718,7 +9718,7 @@
         <v>1003</v>
       </c>
       <c r="C439" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>1002</v>
@@ -9872,7 +9872,7 @@
         <v>1003</v>
       </c>
       <c r="C450" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D450" s="2" t="s">
         <v>1009</v>
@@ -11174,7 +11174,7 @@
         <v>1000</v>
       </c>
       <c r="C543" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>1007</v>
@@ -11440,7 +11440,7 @@
         <v>1000</v>
       </c>
       <c r="C562" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>1009</v>
@@ -12000,7 +12000,7 @@
         <v>1000</v>
       </c>
       <c r="C602" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D602" s="2" t="s">
         <v>1006</v>
@@ -12112,7 +12112,7 @@
         <v>1003</v>
       </c>
       <c r="C610" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D610" s="2" t="s">
         <v>1001</v>
@@ -12140,7 +12140,7 @@
         <v>1000</v>
       </c>
       <c r="C612" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D612" s="2" t="s">
         <v>1002</v>
@@ -12168,7 +12168,7 @@
         <v>1003</v>
       </c>
       <c r="C614" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>1006</v>
@@ -12224,7 +12224,7 @@
         <v>1000</v>
       </c>
       <c r="C618" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D618" s="2" t="s">
         <v>1003</v>
@@ -12331,7 +12331,7 @@
         <v>1003</v>
       </c>
       <c r="C625" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D625" s="2" t="s">
         <v>1005</v>
@@ -12513,7 +12513,7 @@
         <v>1000</v>
       </c>
       <c r="C638" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D638" s="2" t="s">
         <v>1010</v>
@@ -12527,7 +12527,7 @@
         <v>1000</v>
       </c>
       <c r="C639" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D639" s="2" t="s">
         <v>1004</v>
@@ -13101,7 +13101,7 @@
         <v>1000</v>
       </c>
       <c r="C680" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D680" s="2" t="s">
         <v>1007</v>
@@ -13306,7 +13306,7 @@
         <v>1003</v>
       </c>
       <c r="C694" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D694" s="2" t="s">
         <v>1010</v>
@@ -13404,7 +13404,7 @@
         <v>1000</v>
       </c>
       <c r="C701" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D701" s="2" t="s">
         <v>1006</v>
@@ -13838,7 +13838,7 @@
         <v>1000</v>
       </c>
       <c r="C732" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D732" s="2" t="s">
         <v>1006</v>
@@ -14127,7 +14127,7 @@
         <v>1000</v>
       </c>
       <c r="C752" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D752" s="2" t="s">
         <v>1007</v>
@@ -14323,7 +14323,7 @@
         <v>1000</v>
       </c>
       <c r="C766" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D766" s="2" t="s">
         <v>1001</v>
@@ -14337,7 +14337,7 @@
         <v>1000</v>
       </c>
       <c r="C767" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D767" s="2" t="s">
         <v>1001</v>
@@ -14449,7 +14449,7 @@
         <v>1000</v>
       </c>
       <c r="C775" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D775" s="2" t="s">
         <v>1004</v>
@@ -14477,7 +14477,7 @@
         <v>1003</v>
       </c>
       <c r="C777" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D777" s="2" t="s">
         <v>1009</v>
@@ -14519,7 +14519,7 @@
         <v>1003</v>
       </c>
       <c r="C780" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D780" s="2" t="s">
         <v>1009</v>
@@ -14547,7 +14547,7 @@
         <v>1000</v>
       </c>
       <c r="C782" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D782" s="2" t="s">
         <v>1002</v>
@@ -14967,7 +14967,7 @@
         <v>1003</v>
       </c>
       <c r="C812" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D812" s="2" t="s">
         <v>1010</v>
@@ -15037,7 +15037,7 @@
         <v>1000</v>
       </c>
       <c r="C817" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D817" s="2" t="s">
         <v>1001</v>
@@ -15093,7 +15093,7 @@
         <v>1000</v>
       </c>
       <c r="C821" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D821" s="2" t="s">
         <v>1001</v>
@@ -15107,7 +15107,7 @@
         <v>1000</v>
       </c>
       <c r="C822" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D822" s="2" t="s">
         <v>1007</v>
@@ -15191,7 +15191,7 @@
         <v>1000</v>
       </c>
       <c r="C828" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D828" s="2" t="s">
         <v>1000</v>
@@ -15275,7 +15275,7 @@
         <v>1003</v>
       </c>
       <c r="C834" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D834" s="2" t="s">
         <v>1005</v>
@@ -15289,7 +15289,7 @@
         <v>1000</v>
       </c>
       <c r="C835" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D835" s="2" t="s">
         <v>1010</v>
@@ -15401,7 +15401,7 @@
         <v>1003</v>
       </c>
       <c r="C843" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D843" s="2" t="s">
         <v>1003</v>
@@ -15564,7 +15564,7 @@
         <v>1000</v>
       </c>
       <c r="C854" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D854" s="2" t="s">
         <v>1003</v>
@@ -15592,7 +15592,7 @@
         <v>1000</v>
       </c>
       <c r="C856" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D856" s="2" t="s">
         <v>1001</v>
@@ -15634,7 +15634,7 @@
         <v>1003</v>
       </c>
       <c r="C859" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D859" s="2" t="s">
         <v>1004</v>
@@ -15662,7 +15662,7 @@
         <v>1000</v>
       </c>
       <c r="C861" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D861" s="2" t="s">
         <v>1002</v>
@@ -15718,7 +15718,7 @@
         <v>1003</v>
       </c>
       <c r="C865" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D865" s="2" t="s">
         <v>1010</v>
@@ -15732,7 +15732,7 @@
         <v>1000</v>
       </c>
       <c r="C866" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D866" s="2" t="s">
         <v>1004</v>
@@ -15788,7 +15788,7 @@
         <v>1003</v>
       </c>
       <c r="C870" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D870" s="2" t="s">
         <v>1002</v>
@@ -16054,7 +16054,7 @@
         <v>1003</v>
       </c>
       <c r="C889" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D889" s="2" t="s">
         <v>1004</v>
@@ -16376,7 +16376,7 @@
         <v>1000</v>
       </c>
       <c r="C912" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D912" s="2" t="s">
         <v>1009</v>
@@ -16684,7 +16684,7 @@
         <v>1000</v>
       </c>
       <c r="C934" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D934" s="2" t="s">
         <v>1009</v>
@@ -16754,7 +16754,7 @@
         <v>1003</v>
       </c>
       <c r="C939" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D939" s="2" t="s">
         <v>1002</v>
@@ -16782,7 +16782,7 @@
         <v>1000</v>
       </c>
       <c r="C941" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D941" s="2" t="s">
         <v>1003</v>
@@ -16796,7 +16796,7 @@
         <v>1003</v>
       </c>
       <c r="C942" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D942" s="2" t="s">
         <v>1007</v>
@@ -16833,7 +16833,7 @@
         <v>1003</v>
       </c>
       <c r="C944" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D944" s="2" t="s">
         <v>1007</v>
@@ -16856,7 +16856,7 @@
         <v>1000</v>
       </c>
       <c r="C945" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D945" s="2" t="s">
         <v>1003</v>
@@ -16968,7 +16968,7 @@
         <v>1000</v>
       </c>
       <c r="C953" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D953" s="2" t="s">
         <v>1010</v>
@@ -16996,7 +16996,7 @@
         <v>1003</v>
       </c>
       <c r="C955" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D955" s="2" t="s">
         <v>1006</v>
@@ -17094,7 +17094,7 @@
         <v>1003</v>
       </c>
       <c r="C962" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D962" s="2" t="s">
         <v>1008</v>
@@ -17304,7 +17304,7 @@
         <v>1003</v>
       </c>
       <c r="C977" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D977" s="2" t="s">
         <v>1005</v>
@@ -17402,7 +17402,7 @@
         <v>1000</v>
       </c>
       <c r="C984" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D984" s="2" t="s">
         <v>1006</v>
@@ -17656,6 +17656,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1001" xr:uid="{92EC8342-1B8F-47C6-95DF-FE5EFE8F96B0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Dataset/Cause-effect-pairs-in-school.xlsx
+++ b/Dataset/Cause-effect-pairs-in-school.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{9C830ED0-A253-4296-B637-858908BA8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF45E470-3F64-4C5D-9A3B-D66F31FFFEEF}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{9C830ED0-A253-4296-B637-858908BA8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEFB6DD0-CF7E-4A65-8039-D24C14BA0B01}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18DE6829-2EBC-4995-95BF-814080D6C527}"/>
   </bookViews>
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EC8342-1B8F-47C6-95DF-FE5EFE8F96B0}">
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H504" sqref="H504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3504,7 +3504,7 @@
     <col min="3" max="3" width="16.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="46.109375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="2"/>

--- a/Dataset/Cause-effect-pairs-in-school.xlsx
+++ b/Dataset/Cause-effect-pairs-in-school.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{9C830ED0-A253-4296-B637-858908BA8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8341A3E7-780E-4E86-B618-2ACD75134D4B}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{9C830ED0-A253-4296-B637-858908BA8328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7BE3362-7583-4869-9E05-A949B28ADCE6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18DE6829-2EBC-4995-95BF-814080D6C527}"/>
   </bookViews>
@@ -3487,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EC8342-1B8F-47C6-95DF-FE5EFE8F96B0}">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3709,6 +3709,12 @@
       <c r="D12" s="2" t="s">
         <v>1000</v>
       </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.53888888888888886</v>
+      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
